--- a/Hasil.xlsx
+++ b/Hasil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,6 +1307,942 @@
         <v>110.5570548690395</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>85.83964942642403</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14930.11177513697</v>
+      </c>
+      <c r="H34" t="n">
+        <v>122.1888365405652</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>69.42597932449513</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9059.795002267254</v>
+      </c>
+      <c r="H35" t="n">
+        <v>95.18295541885246</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>87.17180787991755</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15256.66822676</v>
+      </c>
+      <c r="H36" t="n">
+        <v>123.5178862625167</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>88.43719602633263</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12175.03371599633</v>
+      </c>
+      <c r="H37" t="n">
+        <v>110.3405352352268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>87.77099170918368</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15106.36078769474</v>
+      </c>
+      <c r="H38" t="n">
+        <v>122.9079362274656</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>68.32513592155627</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8923.064066678271</v>
+      </c>
+      <c r="H39" t="n">
+        <v>94.4619715371126</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>85.63120253164556</v>
+      </c>
+      <c r="G40" t="n">
+        <v>14901.13352489157</v>
+      </c>
+      <c r="H40" t="n">
+        <v>122.0701991679033</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>69.00268702651533</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8776.3476570904</v>
+      </c>
+      <c r="H41" t="n">
+        <v>93.68216296120836</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>87.17325606757615</v>
+      </c>
+      <c r="G42" t="n">
+        <v>15278.69214708439</v>
+      </c>
+      <c r="H42" t="n">
+        <v>123.6070068688842</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>72.45286524428948</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9415.364870789434</v>
+      </c>
+      <c r="H43" t="n">
+        <v>97.03280306571295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>85.14857730787627</v>
+      </c>
+      <c r="G44" t="n">
+        <v>14689.4915974597</v>
+      </c>
+      <c r="H44" t="n">
+        <v>121.2002128606204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>64.25242805325269</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8751.168795987553</v>
+      </c>
+      <c r="H45" t="n">
+        <v>93.54768193807665</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>89.85858395965191</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16216.61665654006</v>
+      </c>
+      <c r="H46" t="n">
+        <v>127.3444802751185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>71.80527817234861</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10253.18297943772</v>
+      </c>
+      <c r="H47" t="n">
+        <v>101.2580020513822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>89.18190841132616</v>
+      </c>
+      <c r="G48" t="n">
+        <v>15786.65894684994</v>
+      </c>
+      <c r="H48" t="n">
+        <v>125.6449718327397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>71.69277204949253</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10352.273068783</v>
+      </c>
+      <c r="H49" t="n">
+        <v>101.7461206571681</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>87.07491171077804</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15263.28503923187</v>
+      </c>
+      <c r="H50" t="n">
+        <v>123.5446681942684</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>65.97849709024247</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8763.910288629155</v>
+      </c>
+      <c r="H51" t="n">
+        <v>93.61575876223594</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>96.20928436947409</v>
+      </c>
+      <c r="G52" t="n">
+        <v>19993.68124782189</v>
+      </c>
+      <c r="H52" t="n">
+        <v>138.1625922787152</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>89.13666796613128</v>
+      </c>
+      <c r="G53" t="n">
+        <v>18189.26821415083</v>
+      </c>
+      <c r="H53" t="n">
+        <v>129.7137606020945</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>94.59626927312692</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19642.43588811048</v>
+      </c>
+      <c r="H54" t="n">
+        <v>137.5650362552563</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>98.79484832549156</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20793.55791423911</v>
+      </c>
+      <c r="H55" t="n">
+        <v>138.2573024540595</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>95.75965386713959</v>
+      </c>
+      <c r="G56" t="n">
+        <v>19841.08074677864</v>
+      </c>
+      <c r="H56" t="n">
+        <v>137.3672084758258</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>94.09245572192796</v>
+      </c>
+      <c r="G57" t="n">
+        <v>19700.22424332826</v>
+      </c>
+      <c r="H57" t="n">
+        <v>134.520400741213</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>98.93161423266005</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20464.28903748773</v>
+      </c>
+      <c r="H58" t="n">
+        <v>142.0253242865204</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>96.18003415066343</v>
+      </c>
+      <c r="G59" t="n">
+        <v>19733.17071150954</v>
+      </c>
+      <c r="H59" t="n">
+        <v>136.1483528769061</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>99.40197831460246</v>
+      </c>
+      <c r="G60" t="n">
+        <v>21390.53216256588</v>
+      </c>
+      <c r="H60" t="n">
+        <v>142.2953886037799</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>101.3891321070927</v>
+      </c>
+      <c r="G61" t="n">
+        <v>21409.23656300914</v>
+      </c>
+      <c r="H61" t="n">
+        <v>140.0653251847747</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>109.1507709376917</v>
+      </c>
+      <c r="G62" t="n">
+        <v>22780.43494162568</v>
+      </c>
+      <c r="H62" t="n">
+        <v>148.649854020991</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>105.8104249856991</v>
+      </c>
+      <c r="G63" t="n">
+        <v>23113.61702619958</v>
+      </c>
+      <c r="H63" t="n">
+        <v>146.1236209907587</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>117.1058050640244</v>
+      </c>
+      <c r="G64" t="n">
+        <v>25607.83800725257</v>
+      </c>
+      <c r="H64" t="n">
+        <v>156.4726007786211</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>115.9937846897696</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25420.61160154928</v>
+      </c>
+      <c r="H65" t="n">
+        <v>154.70260624055</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>113.7382118295107</v>
+      </c>
+      <c r="G66" t="n">
+        <v>26442.95465518317</v>
+      </c>
+      <c r="H66" t="n">
+        <v>158.0718701410001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>112.1189943204003</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25638.01690386462</v>
+      </c>
+      <c r="H67" t="n">
+        <v>152.3684013232394</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>20</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>119.1228865207055</v>
+      </c>
+      <c r="G68" t="n">
+        <v>27655.02160514909</v>
+      </c>
+      <c r="H68" t="n">
+        <v>158.9228277743212</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>EUR/IDR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>111.8917564064265</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25909.26612922292</v>
+      </c>
+      <c r="H69" t="n">
+        <v>151.7564439964648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Hasil.xlsx
+++ b/Hasil.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\GitHub\Tugas-Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E509DC79-6FD0-4F2F-87AA-35BC3497AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC268BE8-DBC3-4075-967E-71E71C078903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2190" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="1770" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="11">
   <si>
     <t>Type</t>
   </si>
@@ -51,12 +51,15 @@
   <si>
     <t>EUR/IDR</t>
   </si>
+  <si>
+    <t>SGD/IDR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,19 +463,20 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="F2">
-        <v>54.016487464126357</v>
-      </c>
-      <c r="G2">
-        <v>5032.2107300991129</v>
-      </c>
-      <c r="H2">
-        <v>70.938076729631689</v>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>60.561847309999997</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6066.1269380000003</v>
+      </c>
+      <c r="H2" s="2">
+        <v>77.88534482</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -477,19 +487,20 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="F3">
-        <v>51.405836455676059</v>
-      </c>
-      <c r="G3">
-        <v>5153.5694461629964</v>
-      </c>
-      <c r="H3">
-        <v>71.78836567413272</v>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>55.36533696</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5362.5059629999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>73.229133289999993</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -497,22 +508,23 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="F4">
-        <v>43.848218453322907</v>
-      </c>
-      <c r="G4">
-        <v>3647.00248942693</v>
-      </c>
-      <c r="H4">
-        <v>60.390417198649402</v>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>50.614184450000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4583.0410940000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>67.698161670000005</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -520,22 +532,23 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="F5">
-        <v>46.608443813131373</v>
-      </c>
-      <c r="G5">
-        <v>4351.5890210327143</v>
-      </c>
-      <c r="H5">
-        <v>65.966575028818298</v>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>53.956278750000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5328.2803629999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>72.995070810000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,22 +556,22 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
       <c r="F6">
-        <v>43.661918028236173</v>
+        <v>54.016487464126357</v>
       </c>
       <c r="G6">
-        <v>3713.356333154994</v>
+        <v>5032.2107300991129</v>
       </c>
       <c r="H6">
-        <v>60.93731478458001</v>
+        <v>70.938076729631689</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -566,22 +579,22 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="F7">
-        <v>70.391895026967163</v>
+        <v>51.405836455676059</v>
       </c>
       <c r="G7">
-        <v>7314.7213777011921</v>
+        <v>5153.5694461629964</v>
       </c>
       <c r="H7">
-        <v>85.526144410356721</v>
+        <v>71.78836567413272</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,19 +605,19 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0.8</v>
       </c>
       <c r="F8">
-        <v>44.106539979273073</v>
+        <v>43.848218453322907</v>
       </c>
       <c r="G8">
-        <v>3746.3055772269649</v>
+        <v>3647.00248942693</v>
       </c>
       <c r="H8">
-        <v>61.207071300846977</v>
+        <v>60.390417198649402</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -615,19 +628,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0.9</v>
       </c>
       <c r="F9">
-        <v>67.880830476722124</v>
+        <v>46.608443813131373</v>
       </c>
       <c r="G9">
-        <v>6834.2170286570172</v>
+        <v>4351.5890210327143</v>
       </c>
       <c r="H9">
-        <v>82.669323383326528</v>
+        <v>65.966575028818298</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,22 +648,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0.8</v>
       </c>
       <c r="F10">
-        <v>49.309258306962093</v>
+        <v>43.661918028236173</v>
       </c>
       <c r="G10">
-        <v>4230.2485866357474</v>
+        <v>3713.356333154994</v>
       </c>
       <c r="H10">
-        <v>65.040361212371408</v>
+        <v>60.93731478458001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,22 +671,22 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0.9</v>
       </c>
       <c r="F11">
-        <v>90.622798295454473</v>
+        <v>70.391895026967163</v>
       </c>
       <c r="G11">
-        <v>11532.68404173532</v>
+        <v>7314.7213777011921</v>
       </c>
       <c r="H11">
-        <v>107.3903349549452</v>
+        <v>85.526144410356721</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,22 +694,22 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>0.8</v>
       </c>
       <c r="F12">
-        <v>48.57280298223359</v>
+        <v>44.106539979273073</v>
       </c>
       <c r="G12">
-        <v>4115.8000632914591</v>
+        <v>3746.3055772269649</v>
       </c>
       <c r="H12">
-        <v>64.15450150450441</v>
+        <v>61.207071300846977</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,22 +717,22 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0.9</v>
       </c>
       <c r="F13">
-        <v>46.561321184961997</v>
+        <v>67.880830476722124</v>
       </c>
       <c r="G13">
-        <v>4355.9383794428368</v>
+        <v>6834.2170286570172</v>
       </c>
       <c r="H13">
-        <v>65.999533175946297</v>
+        <v>82.669323383326528</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -730,19 +743,19 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0.8</v>
       </c>
       <c r="F14">
-        <v>52.306338189572799</v>
+        <v>49.309258306962093</v>
       </c>
       <c r="G14">
-        <v>4577.5576626300017</v>
+        <v>4230.2485866357474</v>
       </c>
       <c r="H14">
-        <v>67.657650436813142</v>
+        <v>65.040361212371408</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,19 +766,19 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>0.9</v>
       </c>
       <c r="F15">
-        <v>65.926083187181078</v>
+        <v>90.622798295454473</v>
       </c>
       <c r="G15">
-        <v>6896.7328771495868</v>
+        <v>11532.68404173532</v>
       </c>
       <c r="H15">
-        <v>83.046570532139299</v>
+        <v>107.3903349549452</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -773,22 +786,22 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0.8</v>
       </c>
       <c r="F16">
-        <v>73.387225585937458</v>
+        <v>48.57280298223359</v>
       </c>
       <c r="G16">
-        <v>12213.897872416799</v>
+        <v>4115.8000632914591</v>
       </c>
       <c r="H16">
-        <v>100.7998339540683</v>
+        <v>64.15450150450441</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,22 +809,22 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
       </c>
       <c r="F17">
-        <v>78.214879211766686</v>
+        <v>46.561321184961997</v>
       </c>
       <c r="G17">
-        <v>13143.713793184381</v>
+        <v>4355.9383794428368</v>
       </c>
       <c r="H17">
-        <v>104.631266174606</v>
+        <v>65.999533175946297</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,22 +832,22 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
       </c>
       <c r="F18">
-        <v>73.136486811926574</v>
+        <v>52.306338189572799</v>
       </c>
       <c r="G18">
-        <v>11626.643303846849</v>
+        <v>4577.5576626300017</v>
       </c>
       <c r="H18">
-        <v>99.096291275502466</v>
+        <v>67.657650436813142</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,22 +855,22 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
       </c>
       <c r="F19">
-        <v>70.025199372366586</v>
+        <v>65.926083187181078</v>
       </c>
       <c r="G19">
-        <v>11386.386198876209</v>
+        <v>6896.7328771495868</v>
       </c>
       <c r="H19">
-        <v>96.21181536103478</v>
+        <v>83.046570532139299</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,19 +881,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>72.747924583013784</v>
+        <v>73.387225585937458</v>
       </c>
       <c r="G20">
-        <v>11902.444914731461</v>
+        <v>12213.897872416799</v>
       </c>
       <c r="H20">
-        <v>99.974609350310487</v>
+        <v>100.7998339540683</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,19 +904,19 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>76.861948689088933</v>
+        <v>78.214879211766686</v>
       </c>
       <c r="G21">
-        <v>12259.72782977576</v>
+        <v>13143.713793184381</v>
       </c>
       <c r="H21">
-        <v>101.6532835656331</v>
+        <v>104.631266174606</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,22 +924,22 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="F22">
-        <v>76.579847132240801</v>
+        <v>73.136486811926574</v>
       </c>
       <c r="G22">
-        <v>12971.87702554269</v>
+        <v>11626.643303846849</v>
       </c>
       <c r="H22">
-        <v>104.7896503308354</v>
+        <v>99.096291275502466</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,22 +947,22 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>79.599069395949698</v>
+        <v>70.025199372366586</v>
       </c>
       <c r="G23">
-        <v>13443.539035596181</v>
+        <v>11386.386198876209</v>
       </c>
       <c r="H23">
-        <v>105.0075945273456</v>
+        <v>96.21181536103478</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,22 +970,22 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
-        <v>74.801365682339423</v>
+        <v>72.747924583013784</v>
       </c>
       <c r="G24">
-        <v>12625.552051135461</v>
+        <v>11902.444914731461</v>
       </c>
       <c r="H24">
-        <v>102.8278427735565</v>
+        <v>99.974609350310487</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,22 +993,22 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>80.211385138693814</v>
+        <v>76.861948689088933</v>
       </c>
       <c r="G25">
-        <v>13465.159664901759</v>
+        <v>12259.72782977576</v>
       </c>
       <c r="H25">
-        <v>105.8684625709005</v>
+        <v>101.6532835656331</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,19 +1019,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>74.183368697277558</v>
+        <v>76.579847132240801</v>
       </c>
       <c r="G26">
-        <v>12121.475888963951</v>
+        <v>12971.87702554269</v>
       </c>
       <c r="H26">
-        <v>101.2502415271623</v>
+        <v>104.7896503308354</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,19 +1042,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>81.225732896362999</v>
+        <v>79.599069395949698</v>
       </c>
       <c r="G27">
-        <v>12952.658082727559</v>
+        <v>13443.539035596181</v>
       </c>
       <c r="H27">
-        <v>105.43629771516061</v>
+        <v>105.0075945273456</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,22 +1062,22 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28">
-        <v>89.197824004382554</v>
+        <v>74.801365682339423</v>
       </c>
       <c r="G28">
-        <v>16125.81751349194</v>
+        <v>12625.552051135461</v>
       </c>
       <c r="H28">
-        <v>116.82176733134671</v>
+        <v>102.8278427735565</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1072,22 +1085,22 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>92.732332576815608</v>
+        <v>80.211385138693814</v>
       </c>
       <c r="G29">
-        <v>18316.178621131108</v>
+        <v>13465.159664901759</v>
       </c>
       <c r="H29">
-        <v>119.908967617274</v>
+        <v>105.8684625709005</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1095,22 +1108,22 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30">
-        <v>80.151517034594775</v>
+        <v>74.183368697277558</v>
       </c>
       <c r="G30">
-        <v>13847.42609555703</v>
+        <v>12121.475888963951</v>
       </c>
       <c r="H30">
-        <v>107.01289258023949</v>
+        <v>101.2502415271623</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,22 +1131,22 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>88.414554994733152</v>
+        <v>81.225732896362999</v>
       </c>
       <c r="G31">
-        <v>16825.518306628612</v>
+        <v>12952.658082727559</v>
       </c>
       <c r="H31">
-        <v>114.3943622267214</v>
+        <v>105.43629771516061</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,19 +1157,19 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32">
-        <v>73.23472735333587</v>
+        <v>89.197824004382554</v>
       </c>
       <c r="G32">
-        <v>12529.657648381441</v>
+        <v>16125.81751349194</v>
       </c>
       <c r="H32">
-        <v>100.81253763328689</v>
+        <v>116.82176733134671</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,111 +1180,111 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>86.129040188029634</v>
+        <v>92.732332576815608</v>
       </c>
       <c r="G33">
-        <v>14803.583587726711</v>
+        <v>18316.178621131108</v>
       </c>
       <c r="H33">
-        <v>110.5570548690395</v>
+        <v>119.908967617274</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>0.8</v>
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>85.839649426424032</v>
+        <v>80.151517034594775</v>
       </c>
       <c r="G34">
-        <v>14930.111775136969</v>
+        <v>13847.42609555703</v>
       </c>
       <c r="H34">
-        <v>122.18883654056521</v>
+        <v>107.01289258023949</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>0.9</v>
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>69.425979324495131</v>
+        <v>88.414554994733152</v>
       </c>
       <c r="G35">
-        <v>9059.7950022672539</v>
+        <v>16825.518306628612</v>
       </c>
       <c r="H35">
-        <v>95.182955418852458</v>
+        <v>114.3943622267214</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>0.8</v>
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>87.171807879917552</v>
+        <v>73.23472735333587</v>
       </c>
       <c r="G36">
-        <v>15256.668226760001</v>
+        <v>12529.657648381441</v>
       </c>
       <c r="H36">
-        <v>123.5178862625167</v>
+        <v>100.81253763328689</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>0.9</v>
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>88.437196026332629</v>
+        <v>86.129040188029634</v>
       </c>
       <c r="G37">
-        <v>12175.033715996329</v>
+        <v>14803.583587726711</v>
       </c>
       <c r="H37">
-        <v>110.3405352352268</v>
+        <v>110.5570548690395</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,19 +1295,19 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>0.8</v>
       </c>
       <c r="F38">
-        <v>87.770991709183676</v>
+        <v>85.839649426424032</v>
       </c>
       <c r="G38">
-        <v>15106.360787694741</v>
+        <v>14930.111775136969</v>
       </c>
       <c r="H38">
-        <v>122.9079362274656</v>
+        <v>122.18883654056521</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1305,19 +1318,19 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>0.9</v>
       </c>
       <c r="F39">
-        <v>68.325135921556267</v>
+        <v>69.425979324495131</v>
       </c>
       <c r="G39">
-        <v>8923.064066678271</v>
+        <v>9059.7950022672539</v>
       </c>
       <c r="H39">
-        <v>94.461971537112603</v>
+        <v>95.182955418852458</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,22 +1338,22 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0.8</v>
       </c>
       <c r="F40">
-        <v>85.631202531645556</v>
+        <v>87.171807879917552</v>
       </c>
       <c r="G40">
-        <v>14901.133524891569</v>
+        <v>15256.668226760001</v>
       </c>
       <c r="H40">
-        <v>122.0701991679033</v>
+        <v>123.5178862625167</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,22 +1361,22 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0.9</v>
       </c>
       <c r="F41">
-        <v>69.002687026515332</v>
+        <v>88.437196026332629</v>
       </c>
       <c r="G41">
-        <v>8776.3476570904004</v>
+        <v>12175.033715996329</v>
       </c>
       <c r="H41">
-        <v>93.682162961208363</v>
+        <v>110.3405352352268</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,22 +1384,22 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>0.8</v>
       </c>
       <c r="F42">
-        <v>87.173256067576148</v>
+        <v>87.770991709183676</v>
       </c>
       <c r="G42">
-        <v>15278.69214708439</v>
+        <v>15106.360787694741</v>
       </c>
       <c r="H42">
-        <v>123.6070068688842</v>
+        <v>122.9079362274656</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,22 +1407,22 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>0.9</v>
       </c>
       <c r="F43">
-        <v>72.452865244289484</v>
+        <v>68.325135921556267</v>
       </c>
       <c r="G43">
-        <v>9415.3648707894336</v>
+        <v>8923.064066678271</v>
       </c>
       <c r="H43">
-        <v>97.032803065712955</v>
+        <v>94.461971537112603</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1420,19 +1433,19 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0.8</v>
       </c>
       <c r="F44">
-        <v>85.148577307876266</v>
+        <v>85.631202531645556</v>
       </c>
       <c r="G44">
-        <v>14689.491597459701</v>
+        <v>14901.133524891569</v>
       </c>
       <c r="H44">
-        <v>121.2002128606204</v>
+        <v>122.0701991679033</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,19 +1456,19 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>0.9</v>
       </c>
       <c r="F45">
-        <v>64.252428053252686</v>
+        <v>69.002687026515332</v>
       </c>
       <c r="G45">
-        <v>8751.1687959875526</v>
+        <v>8776.3476570904004</v>
       </c>
       <c r="H45">
-        <v>93.54768193807665</v>
+        <v>93.682162961208363</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,22 +1476,22 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>89.858583959651909</v>
+        <v>87.173256067576148</v>
       </c>
       <c r="G46">
-        <v>16216.61665654006</v>
+        <v>15278.69214708439</v>
       </c>
       <c r="H46">
-        <v>127.3444802751185</v>
+        <v>123.6070068688842</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,22 +1499,22 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>0.9</v>
       </c>
       <c r="F47">
-        <v>71.805278172348608</v>
+        <v>72.452865244289484</v>
       </c>
       <c r="G47">
-        <v>10253.182979437721</v>
+        <v>9415.3648707894336</v>
       </c>
       <c r="H47">
-        <v>101.25800205138221</v>
+        <v>97.032803065712955</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,22 +1522,22 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>0.8</v>
       </c>
       <c r="F48">
-        <v>89.181908411326162</v>
+        <v>85.148577307876266</v>
       </c>
       <c r="G48">
-        <v>15786.658946849941</v>
+        <v>14689.491597459701</v>
       </c>
       <c r="H48">
-        <v>125.6449718327397</v>
+        <v>121.2002128606204</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1532,22 +1545,22 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>0.9</v>
       </c>
       <c r="F49">
-        <v>71.692772049492532</v>
+        <v>64.252428053252686</v>
       </c>
       <c r="G49">
-        <v>10352.273068783001</v>
+        <v>8751.1687959875526</v>
       </c>
       <c r="H49">
-        <v>101.74612065716811</v>
+        <v>93.54768193807665</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1558,19 +1571,19 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>0.8</v>
       </c>
       <c r="F50">
-        <v>87.074911710778039</v>
+        <v>89.858583959651909</v>
       </c>
       <c r="G50">
-        <v>15263.285039231871</v>
+        <v>16216.61665654006</v>
       </c>
       <c r="H50">
-        <v>123.5446681942684</v>
+        <v>127.3444802751185</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,19 +1594,19 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>0.9</v>
       </c>
       <c r="F51">
-        <v>65.97849709024247</v>
+        <v>71.805278172348608</v>
       </c>
       <c r="G51">
-        <v>8763.9102886291548</v>
+        <v>10253.182979437721</v>
       </c>
       <c r="H51">
-        <v>93.615758762235942</v>
+        <v>101.25800205138221</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,22 +1614,22 @@
         <v>9</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
       </c>
       <c r="F52">
-        <v>96.209284369474091</v>
+        <v>89.181908411326162</v>
       </c>
       <c r="G52">
-        <v>19993.681247821889</v>
+        <v>15786.658946849941</v>
       </c>
       <c r="H52">
-        <v>138.16259227871521</v>
+        <v>125.6449718327397</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1624,22 +1637,22 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0.9</v>
       </c>
       <c r="F53">
-        <v>89.136667966131284</v>
+        <v>71.692772049492532</v>
       </c>
       <c r="G53">
-        <v>18189.26821415083</v>
+        <v>10352.273068783001</v>
       </c>
       <c r="H53">
-        <v>129.71376060209451</v>
+        <v>101.74612065716811</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,22 +1660,22 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
       </c>
       <c r="F54">
-        <v>94.596269273126921</v>
+        <v>87.074911710778039</v>
       </c>
       <c r="G54">
-        <v>19642.435888110482</v>
+        <v>15263.285039231871</v>
       </c>
       <c r="H54">
-        <v>137.5650362552563</v>
+        <v>123.5446681942684</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,22 +1683,22 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>0.9</v>
       </c>
       <c r="F55">
-        <v>98.794848325491557</v>
+        <v>65.97849709024247</v>
       </c>
       <c r="G55">
-        <v>20793.557914239111</v>
+        <v>8763.9102886291548</v>
       </c>
       <c r="H55">
-        <v>138.2573024540595</v>
+        <v>93.615758762235942</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,19 +1709,19 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="F56">
-        <v>95.75965386713959</v>
+        <v>96.209284369474091</v>
       </c>
       <c r="G56">
-        <v>19841.08074677864</v>
+        <v>19993.681247821889</v>
       </c>
       <c r="H56">
-        <v>137.36720847582581</v>
+        <v>138.16259227871521</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,19 +1732,19 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57">
-        <v>94.092455721927962</v>
+        <v>89.136667966131284</v>
       </c>
       <c r="G57">
-        <v>19700.224243328259</v>
+        <v>18189.26821415083</v>
       </c>
       <c r="H57">
-        <v>134.520400741213</v>
+        <v>129.71376060209451</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1739,22 +1752,22 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="F58">
-        <v>98.931614232660053</v>
+        <v>94.596269273126921</v>
       </c>
       <c r="G58">
-        <v>20464.289037487732</v>
+        <v>19642.435888110482</v>
       </c>
       <c r="H58">
-        <v>142.0253242865204</v>
+        <v>137.5650362552563</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,22 +1775,22 @@
         <v>9</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="F59">
-        <v>96.180034150663431</v>
+        <v>98.794848325491557</v>
       </c>
       <c r="G59">
-        <v>19733.170711509541</v>
+        <v>20793.557914239111</v>
       </c>
       <c r="H59">
-        <v>136.1483528769061</v>
+        <v>138.2573024540595</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1785,22 +1798,22 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
       <c r="F60">
-        <v>99.401978314602459</v>
+        <v>95.75965386713959</v>
       </c>
       <c r="G60">
-        <v>21390.53216256588</v>
+        <v>19841.08074677864</v>
       </c>
       <c r="H60">
-        <v>142.29538860377991</v>
+        <v>137.36720847582581</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,22 +1821,22 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61">
-        <v>101.38913210709271</v>
+        <v>94.092455721927962</v>
       </c>
       <c r="G61">
-        <v>21409.236563009141</v>
+        <v>19700.224243328259</v>
       </c>
       <c r="H61">
-        <v>140.06532518477471</v>
+        <v>134.520400741213</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1834,19 +1847,19 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E62">
         <v>5</v>
       </c>
       <c r="F62">
-        <v>109.1507709376917</v>
+        <v>98.931614232660053</v>
       </c>
       <c r="G62">
-        <v>22780.434941625681</v>
+        <v>20464.289037487732</v>
       </c>
       <c r="H62">
-        <v>148.649854020991</v>
+        <v>142.0253242865204</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1857,19 +1870,19 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="F63">
-        <v>105.8104249856991</v>
+        <v>96.180034150663431</v>
       </c>
       <c r="G63">
-        <v>23113.617026199579</v>
+        <v>19733.170711509541</v>
       </c>
       <c r="H63">
-        <v>146.1236209907587</v>
+        <v>136.1483528769061</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -1877,22 +1890,22 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>5</v>
       </c>
       <c r="F64">
-        <v>117.10580506402439</v>
+        <v>99.401978314602459</v>
       </c>
       <c r="G64">
-        <v>25607.838007252569</v>
+        <v>21390.53216256588</v>
       </c>
       <c r="H64">
-        <v>156.47260077862111</v>
+        <v>142.29538860377991</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -1900,22 +1913,22 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="F65">
-        <v>115.9937846897696</v>
+        <v>104.7132558</v>
       </c>
       <c r="G65">
-        <v>25420.611601549281</v>
+        <v>21969.74078</v>
       </c>
       <c r="H65">
-        <v>154.70260624055001</v>
+        <v>143.24925719999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,22 +1936,22 @@
         <v>9</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66">
-        <v>113.7382118295107</v>
+        <v>109.1507709376917</v>
       </c>
       <c r="G66">
-        <v>26442.95465518317</v>
+        <v>22780.434941625681</v>
       </c>
       <c r="H66">
-        <v>158.07187014100009</v>
+        <v>148.649854020991</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1946,22 +1959,22 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67">
-        <v>112.1189943204003</v>
+        <v>105.8104249856991</v>
       </c>
       <c r="G67">
-        <v>25638.01690386462</v>
+        <v>23113.617026199579</v>
       </c>
       <c r="H67">
-        <v>152.3684013232394</v>
+        <v>146.1236209907587</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1972,19 +1985,19 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <v>5</v>
       </c>
       <c r="F68">
-        <v>119.12288652070551</v>
+        <v>117.10580506402439</v>
       </c>
       <c r="G68">
-        <v>27655.02160514909</v>
+        <v>25607.838007252569</v>
       </c>
       <c r="H68">
-        <v>158.92282777432121</v>
+        <v>156.47260077862111</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,19 +2008,939 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69">
+        <v>115.9937846897696</v>
+      </c>
+      <c r="G69">
+        <v>25420.611601549281</v>
+      </c>
+      <c r="H69">
+        <v>154.70260624055001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>113.7382118295107</v>
+      </c>
+      <c r="G70">
+        <v>26442.95465518317</v>
+      </c>
+      <c r="H70">
+        <v>158.07187014100009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>112.1189943204003</v>
+      </c>
+      <c r="G71">
+        <v>25638.01690386462</v>
+      </c>
+      <c r="H71">
+        <v>152.3684013232394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>119.12288652070551</v>
+      </c>
+      <c r="G72">
+        <v>27655.02160514909</v>
+      </c>
+      <c r="H72">
+        <v>158.92282777432121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
         <v>111.8917564064265</v>
       </c>
-      <c r="G69">
+      <c r="G73">
         <v>25909.26612922292</v>
       </c>
-      <c r="H69">
+      <c r="H73">
         <v>151.75644399646481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>0.8</v>
+      </c>
+      <c r="F74">
+        <v>42.779837056425777</v>
+      </c>
+      <c r="G74">
+        <v>2944.2588036681191</v>
+      </c>
+      <c r="H74">
+        <v>54.261024720033802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>0.9</v>
+      </c>
+      <c r="F75">
+        <v>45.438152901785593</v>
+      </c>
+      <c r="G75">
+        <v>3106.975484149611</v>
+      </c>
+      <c r="H75">
+        <v>55.740250126363897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0.8</v>
+      </c>
+      <c r="F76">
+        <v>49.984303084935853</v>
+      </c>
+      <c r="G76">
+        <v>3822.025442778041</v>
+      </c>
+      <c r="H76">
+        <v>61.822531837332903</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0.9</v>
+      </c>
+      <c r="F77">
+        <v>74.353657652243498</v>
+      </c>
+      <c r="G77">
+        <v>6843.4870875754086</v>
+      </c>
+      <c r="H77">
+        <v>82.725371486475709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>0.8</v>
+      </c>
+      <c r="F78">
+        <v>31.483063486630151</v>
+      </c>
+      <c r="G78">
+        <v>1754.5608268355959</v>
+      </c>
+      <c r="H78">
+        <v>41.887478162758811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>0.9</v>
+      </c>
+      <c r="F79">
+        <v>66.50408907860816</v>
+      </c>
+      <c r="G79">
+        <v>5677.8076421566684</v>
+      </c>
+      <c r="H79">
+        <v>75.351228537805994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>0.8</v>
+      </c>
+      <c r="F80">
+        <v>34.709029231937294</v>
+      </c>
+      <c r="G80">
+        <v>2027.2322517801981</v>
+      </c>
+      <c r="H80">
+        <v>45.024795966002984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>0.9</v>
+      </c>
+      <c r="F81">
+        <v>110.56119240274229</v>
+      </c>
+      <c r="G81">
+        <v>14174.04766297447</v>
+      </c>
+      <c r="H81">
+        <v>119.0548094911519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0.8</v>
+      </c>
+      <c r="F82">
+        <v>32.948331530448698</v>
+      </c>
+      <c r="G82">
+        <v>1867.062019145154</v>
+      </c>
+      <c r="H82">
+        <v>43.209513063041499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>0.9</v>
+      </c>
+      <c r="F83">
+        <v>80.530541666666565</v>
+      </c>
+      <c r="G83">
+        <v>7933.330358811143</v>
+      </c>
+      <c r="H83">
+        <v>89.069244741443399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <v>33.917278712951052</v>
+      </c>
+      <c r="G84">
+        <v>1921.242356650032</v>
+      </c>
+      <c r="H84">
+        <v>43.831978698776901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>0.9</v>
+      </c>
+      <c r="F85">
+        <v>66.598074460373795</v>
+      </c>
+      <c r="G85">
+        <v>5809.6125923562167</v>
+      </c>
+      <c r="H85">
+        <v>76.220814692288727</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>34.353905850383612</v>
+      </c>
+      <c r="G86">
+        <v>1972.6074516253591</v>
+      </c>
+      <c r="H86">
+        <v>44.414045657036908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>0.9</v>
+      </c>
+      <c r="F87">
+        <v>52.809257613201623</v>
+      </c>
+      <c r="G87">
+        <v>3977.7439498972699</v>
+      </c>
+      <c r="H87">
+        <v>63.069358248655668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>32.390817708333323</v>
+      </c>
+      <c r="G88">
+        <v>1838.2650732620141</v>
+      </c>
+      <c r="H88">
+        <v>42.874993565737292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>0.9</v>
+      </c>
+      <c r="F89">
+        <v>41.926609975961433</v>
+      </c>
+      <c r="G89">
+        <v>2786.1437534314109</v>
+      </c>
+      <c r="H89">
+        <v>52.783934614913008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>40.056411384503839</v>
+      </c>
+      <c r="G90">
+        <v>2630.129243355741</v>
+      </c>
+      <c r="H90">
+        <v>51.284785690843442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>0.9</v>
+      </c>
+      <c r="F91">
+        <v>91.57070030605658</v>
+      </c>
+      <c r="G91">
+        <v>10039.42795989184</v>
+      </c>
+      <c r="H91">
+        <v>100.1969458610982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>52.038419650000002</v>
+      </c>
+      <c r="G92">
+        <v>9606.0506519999999</v>
+      </c>
+      <c r="H92">
+        <v>84.413442040000007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>47.995400680000003</v>
+      </c>
+      <c r="G93">
+        <v>8696.4819060000009</v>
+      </c>
+      <c r="H93">
+        <v>73.201025520000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>55.888927770000002</v>
+      </c>
+      <c r="G94">
+        <v>9592.9747580000003</v>
+      </c>
+      <c r="H94">
+        <v>84.754622859999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>51.916399439999999</v>
+      </c>
+      <c r="G95">
+        <v>8582.9808410000005</v>
+      </c>
+      <c r="H95">
+        <v>76.576611819999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>50.721325280000002</v>
+      </c>
+      <c r="G96">
+        <v>9684.2650969999995</v>
+      </c>
+      <c r="H96">
+        <v>82.610389749999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>59.964043080000003</v>
+      </c>
+      <c r="G97">
+        <v>10316.797500000001</v>
+      </c>
+      <c r="H97">
+        <v>83.780685579999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>47.9101687</v>
+      </c>
+      <c r="G98">
+        <v>9077.7143730000007</v>
+      </c>
+      <c r="H98">
+        <v>80.060581380000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>56.458250229999997</v>
+      </c>
+      <c r="G99">
+        <v>9710.3829019999994</v>
+      </c>
+      <c r="H99">
+        <v>81.366601540000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>54.146697009999997</v>
+      </c>
+      <c r="G100">
+        <v>9312.4115770000008</v>
+      </c>
+      <c r="H100">
+        <v>84.082325979999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>59.411697750000002</v>
+      </c>
+      <c r="G101">
+        <v>9682.5355340000006</v>
+      </c>
+      <c r="H101">
+        <v>84.746326389999993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>51.463208860000002</v>
+      </c>
+      <c r="G102">
+        <v>9998.9340030000003</v>
+      </c>
+      <c r="H102">
+        <v>84.170968270000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>58.489934830000003</v>
+      </c>
+      <c r="G103">
+        <v>10228.180189999999</v>
+      </c>
+      <c r="H103">
+        <v>84.255991829999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>53.747244049999999</v>
+      </c>
+      <c r="G104">
+        <v>10337.120430000001</v>
+      </c>
+      <c r="H104">
+        <v>86.742174570000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>60.99923836</v>
+      </c>
+      <c r="G105">
+        <v>11261.53327</v>
+      </c>
+      <c r="H105">
+        <v>87.793800719999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>58.016662959999998</v>
+      </c>
+      <c r="G106">
+        <v>10098.02599</v>
+      </c>
+      <c r="H106">
+        <v>87.823758100000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>61.344184089999999</v>
+      </c>
+      <c r="G107">
+        <v>11549.799279999999</v>
+      </c>
+      <c r="H107">
+        <v>88.073124710000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>54.004478499999998</v>
+      </c>
+      <c r="G108">
+        <v>10492.1716</v>
+      </c>
+      <c r="H108">
+        <v>86.277295030000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>62.021356449999999</v>
+      </c>
+      <c r="G109">
+        <v>12205.619140000001</v>
+      </c>
+      <c r="H109">
+        <v>88.854986460000006</v>
       </c>
     </row>
   </sheetData>
